--- a/stable-release/schedule.xlsx
+++ b/stable-release/schedule.xlsx
@@ -1,33 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IChrobak\prog\git-repos\GSM-Gateway\stable-release\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFF02C1-7890-40F9-AFAD-82963BAB7831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -36,35 +20,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
-  <si>
-    <t>StartDate</t>
-  </si>
-  <si>
-    <t>EndDate</t>
-  </si>
-  <si>
-    <t>StartTime</t>
-  </si>
-  <si>
-    <t>EndTime</t>
-  </si>
-  <si>
-    <t>ForwardNumber</t>
-  </si>
-  <si>
-    <t>+XX123456789</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+  <si>
+    <t xml:space="preserve">StartDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EndDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StartTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EndTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ForwardNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+48782335253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+XX123456789</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="hh:mm:ss\ AM/PM"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="hh:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,7 +61,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -90,93 +93,115 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -184,12 +209,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -218,7 +243,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -239,7 +264,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -290,7 +315,7 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -308,32 +333,33 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="181" zoomScaleNormal="181" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -350,105 +376,110 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>45978</v>
-      </c>
-      <c r="B2" s="2">
-        <v>45978</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.27083333333333298</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.3125</v>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0.375</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>45978</v>
-      </c>
-      <c r="B3" s="2">
-        <v>45978</v>
-      </c>
-      <c r="C3" s="3">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>0.3125</v>
       </c>
-      <c r="D3" s="3">
-        <v>0.35416666666666702</v>
+      <c r="D3" s="3" t="n">
+        <v>0.354166666666667</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>45978</v>
-      </c>
-      <c r="B4" s="2">
-        <v>45978</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.35416666666666702</v>
-      </c>
-      <c r="D4" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D4" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>45978</v>
-      </c>
-      <c r="B5" s="2">
-        <v>45978</v>
-      </c>
-      <c r="C5" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="C5" s="3" t="n">
         <v>0.375</v>
       </c>
-      <c r="D5" s="3">
-        <v>0.39583333333333298</v>
+      <c r="D5" s="3" t="n">
+        <v>0.395833333333333</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>45978</v>
-      </c>
-      <c r="B6" s="2">
-        <v>45978</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.39583333333333298</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.41666666666666702</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0.416666666666667</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>